--- a/ConvertedEqual/Utah_Converted.xlsx
+++ b/ConvertedEqual/Utah_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="270">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -789,6 +789,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U221"/>
+  <dimension ref="A1:U233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2455,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2520,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2585,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2650,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2715,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2780,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2845,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2910,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2975,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -3040,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -3105,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -3170,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3235,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3300,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3365,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3430,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3495,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3560,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3625,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3690,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3755,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3820,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3885,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3950,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -4015,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -4080,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -4145,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -4210,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4275,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4340,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4405,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4470,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="U55">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4535,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="U56">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4600,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4665,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4730,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4795,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4860,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4925,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="U62">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4990,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -5055,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="U64">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -5120,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -5185,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -5250,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -5315,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -5380,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5445,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="U70">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -5510,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="U71">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5575,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="U72">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5640,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="U73">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5705,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="U74">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5770,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5835,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="U76">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5900,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="U77">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5965,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -6030,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="U79">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -6095,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="U80">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -6160,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="U81">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -6225,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="U82">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -6290,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="U83">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -6355,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="U84">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -6420,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="U85">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -6485,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="U86">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6550,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="U87">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6615,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="U88">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6680,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="U89">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6745,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="U90">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6810,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="U91">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6875,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="U92">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6940,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="U93">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -7005,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="U94">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -7070,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -7135,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="U96">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -7200,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="U97">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -7265,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="U98">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -7330,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="U99">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -7395,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="U100">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -7460,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="U101">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -7525,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="U102">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -7590,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="U103">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -7655,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="U104">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -7720,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="U105">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -7785,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="U106">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -7850,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="U107">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -7915,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="U108">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7980,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U109">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -8045,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -8110,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="U111">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -8175,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="U112">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -8240,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="U113">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -8305,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="U114">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -8370,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="U115">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -8435,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -8500,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="U117">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -8565,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="U118">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -8630,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="U119">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -8695,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="U120">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -8760,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="U121">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -8825,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="U122">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -8890,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -8955,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="U124">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -9020,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="U125">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -9085,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="U126">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -9150,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="U127">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -9215,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="U128">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -9280,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="U129">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -9345,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="U130">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -9410,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="U131">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -9475,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="U132">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -9540,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="U133">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -9605,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="U134">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -9670,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="U135">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -9735,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="U136">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -9800,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="U137">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -9865,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="U138">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -9930,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="U139">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -9995,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="U140">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -10060,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="U141">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -10125,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="U142">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -10190,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="U143">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -10255,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="U144">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -10320,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="U145">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -10385,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="U146">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -10450,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="U147">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -10515,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="U148">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -10580,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="U149">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -10645,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="U150">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -10710,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="U151">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -10775,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="U152">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -10840,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="U153">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -10905,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="U154">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -10970,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="U155">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -11035,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="U156">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -11100,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="U157">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -11165,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="U158">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -11230,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="U159">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -11295,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="U160">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -11360,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="U161">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -11425,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="U162">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -11490,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="U163">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -11555,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="U164">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -11620,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="U165">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -11685,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="U166">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -11750,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="U167">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -11815,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="U168">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -11880,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="U169">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -11945,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="U170">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -12010,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="U171">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -12075,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="U172">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -12140,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="U173">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -12205,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="U174">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -12270,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="U175">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -12335,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="U176">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -12400,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="U177">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -12465,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="U178">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -12530,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="U179">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -12595,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="U180">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -12660,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="U181">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -12725,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="U182">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -12790,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="U183">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -12855,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="U184">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -12920,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="U185">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -12985,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="U186">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -13050,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="U187">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -13115,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="U188">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:21">
@@ -13180,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:21">
@@ -13245,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="U190">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:21">
@@ -13310,7 +13346,7 @@
         <v>0</v>
       </c>
       <c r="U191">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:21">
@@ -13375,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="U192">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -13440,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="U193">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -13505,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="U194">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:21">
@@ -13570,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="U195">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -13635,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:21">
@@ -13700,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:21">
@@ -13765,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -13830,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -13895,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="U200">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -13960,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:21">
@@ -14025,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="U202">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:21">
@@ -14090,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="U203">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -14155,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:21">
@@ -14220,7 +14256,7 @@
         <v>0</v>
       </c>
       <c r="U205">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:21">
@@ -14285,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:21">
@@ -14350,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="U207">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:21">
@@ -14415,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="U208">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:21">
@@ -14480,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="U209">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -14545,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="U210">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:21">
@@ -14610,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="U211">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:21">
@@ -14675,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="U212">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:21">
@@ -14740,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="U213">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:21">
@@ -14805,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="U214">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:21">
@@ -14870,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="U215">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:21">
@@ -14935,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="U216">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:21">
@@ -15000,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="U217">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:21">
@@ -15065,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="U218">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:21">
@@ -15130,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="U219">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:21">
@@ -15195,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="U220">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:21">
@@ -15260,7 +15296,787 @@
         <v>0</v>
       </c>
       <c r="U221">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="A222" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21">
+      <c r="A223" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21">
+      <c r="A224" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21">
+      <c r="A225" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21">
+      <c r="A226" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21">
+      <c r="A227" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21">
+      <c r="A228" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21">
+      <c r="A229" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21">
+      <c r="A230" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21">
+      <c r="A231" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21">
+      <c r="A232" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>1</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21">
+      <c r="A233" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0.1666666666666667</v>
       </c>
     </row>
   </sheetData>
